--- a/docentes/Duran Amezcua María Angélica - Estadisticos 20202.xlsx
+++ b/docentes/Duran Amezcua María Angélica - Estadisticos 20202.xlsx
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>90.91</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>96.15000000000001</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1094,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>93.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
